--- a/src/test/resources/testCandidatures.xlsx
+++ b/src/test/resources/testCandidatures.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciofernandezalvarez/Documents/asw/VotingSystem_2b/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="3690"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,9 +51,6 @@
     <t>Cs</t>
   </si>
   <si>
-    <t>Partido Politico</t>
-  </si>
-  <si>
     <t>Partido Socialista Obrero Español</t>
   </si>
   <si>
@@ -67,9 +60,6 @@
     <t>Unión Progreso y Democracia</t>
   </si>
   <si>
-    <t>UpyD</t>
-  </si>
-  <si>
     <t>Izquierda Unida</t>
   </si>
   <si>
@@ -77,6 +67,9 @@
   </si>
   <si>
     <t>Vox</t>
+  </si>
+  <si>
+    <t>UPyD</t>
   </si>
 </sst>
 </file>
@@ -418,17 +411,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,26 +462,26 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -496,10 +489,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -507,10 +500,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -527,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,7 +532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
